--- a/chart2/qa/extras/data/xlsx/column-style.xlsx
+++ b/chart2/qa/extras/data/xlsx/column-style.xlsx
@@ -81,10 +81,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="123"/>
+      <c14:style val="136"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="23"/>
+      <c:style val="36"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -125,20 +125,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="lt1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -313,18 +299,6 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -392,7 +366,7 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="777" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0">
@@ -404,7 +378,7 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9999" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:lumMod val="60000"/>

--- a/chart2/qa/extras/data/xlsx/column-style.xlsx
+++ b/chart2/qa/extras/data/xlsx/column-style.xlsx
@@ -361,9 +361,9 @@
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="214">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fillRef idx="7"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="777" b="1" kern="1200"/>

--- a/chart2/qa/extras/data/xlsx/column-style.xlsx
+++ b/chart2/qa/extras/data/xlsx/column-style.xlsx
@@ -318,42 +318,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="acrossLinear" id="10">
+  <a:schemeClr val="dk2"/>
 </cs:colorStyle>
 </file>
 
@@ -542,7 +508,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="x" size="11"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>

--- a/chart2/qa/extras/data/xlsx/column-style.xlsx
+++ b/chart2/qa/extras/data/xlsx/column-style.xlsx
@@ -81,10 +81,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="136"/>
+      <c14:style val="123"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="36"/>
+      <c:style val="23"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -125,6 +125,20 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="lt1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
@@ -299,6 +313,18 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -366,7 +392,7 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="777" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0">
@@ -378,7 +404,7 @@
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9999" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:lumMod val="60000"/>
